--- a/inputs/ALEAF_inputs/ALEAF_Master.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\kb-aleaf\setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF5B73-2588-4B80-8C75-830D48E5FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BBD46-6796-4E00-9DA1-62ACF45BCC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>

--- a/inputs/ALEAF_inputs/ALEAF_Master.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BBD46-6796-4E00-9DA1-62ACF45BCC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7545838-BADD-48B4-96EA-5169E35D8B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
